--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3498.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3498.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.901562577988116</v>
+        <v>2.863211154937744</v>
       </c>
       <c r="B1">
-        <v>1.744008238174348</v>
+        <v>3.2465500831604</v>
       </c>
       <c r="C1">
-        <v>6.209145290167056</v>
+        <v>2.870581388473511</v>
       </c>
       <c r="D1">
-        <v>3.976196487806304</v>
+        <v>2.5421302318573</v>
       </c>
       <c r="E1">
-        <v>1.731866477573635</v>
+        <v>1.721330881118774</v>
       </c>
     </row>
   </sheetData>
